--- a/DataTest/Tiếp nhận/TC_19.xlsx
+++ b/DataTest/Tiếp nhận/TC_19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HIS api automation\DataTest\Tiếp nhận\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HIS api automation\DataTest\Tiếp nhận\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A3A034-02F4-4BD9-9042-3C9506E1C928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF2B0C-9129-4FC2-8B07-CC44509CF429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{794CA7EE-973C-4E52-B2EA-D86EA806D076}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{794CA7EE-973C-4E52-B2EA-D86EA806D076}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>FirstName</t>
   </si>
@@ -235,9 +233,6 @@
   </si>
   <si>
     <t>5/49 Ntl, Phường 07, Quận Bình Thạnh, Thành phố Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Thẻ BHYT hợp lệ</t>
   </si>
   <si>
     <t>2024-05-09T09:13:34.2378979+07:00</t>
@@ -627,28 +622,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64A327E-43DD-469F-A788-E92153460493}">
   <dimension ref="A1:BH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="61.21875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="231.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="231.28515625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,9 +825,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>155</v>
+        <v>3018</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -844,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>46200602655</v>
+        <v>46200608018</v>
       </c>
       <c r="F2">
         <v>356572156</v>
@@ -868,7 +863,7 @@
         <v>26926</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N2">
         <v>134</v>
@@ -895,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -919,25 +914,22 @@
         <v>1</v>
       </c>
       <c r="AM2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AP2">
         <v>3839</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>149</v>
+      </c>
+      <c r="AU2" t="s">
         <v>66</v>
-      </c>
-      <c r="AR2">
-        <v>1</v>
-      </c>
-      <c r="AS2">
-        <v>4803</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>67</v>
       </c>
       <c r="AV2">
         <v>1094172</v>
@@ -946,10 +938,10 @@
         <v>560</v>
       </c>
       <c r="BA2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF2" t="s">
         <v>68</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -965,9 +957,9 @@
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
